--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D04E07C-3801-A146-A017-F5DE27B318A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C965083-6445-B946-AD22-773D75A54E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4780" yWindow="1920" windowWidth="28040" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
+    <workbookView xWindow="480" yWindow="3140" windowWidth="28040" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -44,23 +44,49 @@
     <t>Leaning</t>
   </si>
   <si>
-    <t>breitbart.com</t>
-  </si>
-  <si>
-    <t>Breitbat</t>
-  </si>
-  <si>
     <t>LeaningReference</t>
+  </si>
+  <si>
+    <t>https://www.dailysignal.com/</t>
+  </si>
+  <si>
+    <t>https://www.breitbart.com/</t>
+  </si>
+  <si>
+    <t>Breitbart</t>
+  </si>
+  <si>
+    <t>The Daily Signal</t>
+  </si>
+  <si>
+    <t>Daily Caller</t>
+  </si>
+  <si>
+    <t>https://dailycaller.com/</t>
+  </si>
+  <si>
+    <t>https://www.cnsnews.com/</t>
+  </si>
+  <si>
+    <t>cnsnews</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +109,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
   </cols>
@@ -426,18 +455,48 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{5D619745-A190-1A47-85C9-096FBE68D498}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{F18F8280-7740-A94A-8C03-F51A42467871}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{C2C8E4A2-637C-9946-B607-D208D5F644DA}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{F8888DC2-CA10-1B4C-B13E-4D04FDE84AFE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C965083-6445-B946-AD22-773D75A54E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB936F6-6275-D04F-A123-1CA24AD9847D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="3140" windowWidth="28040" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
+    <workbookView xWindow="14200" yWindow="3700" windowWidth="28040" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -69,6 +69,51 @@
   </si>
   <si>
     <t>cnsnews</t>
+  </si>
+  <si>
+    <t>Parser</t>
+  </si>
+  <si>
+    <t>breitbart</t>
+  </si>
+  <si>
+    <t>dailysignal</t>
+  </si>
+  <si>
+    <t>dailycaller</t>
+  </si>
+  <si>
+    <t>New York Times</t>
+  </si>
+  <si>
+    <t>https://www.nytimes.com/</t>
+  </si>
+  <si>
+    <t>newyorktimes</t>
+  </si>
+  <si>
+    <t>Wall Street Journal</t>
+  </si>
+  <si>
+    <t>https://www.wsj.com/</t>
+  </si>
+  <si>
+    <t>wallstreetjournal</t>
+  </si>
+  <si>
+    <t>https://www.washingtonpost.com/</t>
+  </si>
+  <si>
+    <t>Washington Post</t>
+  </si>
+  <si>
+    <t>washingtonpost</t>
+  </si>
+  <si>
+    <t>Works</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -431,20 +476,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="2" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,42 +497,96 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -496,6 +595,9 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{F18F8280-7740-A94A-8C03-F51A42467871}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{C2C8E4A2-637C-9946-B607-D208D5F644DA}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{F8888DC2-CA10-1B4C-B13E-4D04FDE84AFE}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{C414F531-D513-ED49-9CFF-2E2C5528886D}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{9806FFC2-1CAB-D547-8B1E-E6ACD6CD4EAA}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{45FB14FB-D5C1-BC4A-97DE-3E6FED8C6BD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB936F6-6275-D04F-A123-1CA24AD9847D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F819AE5B-FDC8-3440-A5AF-C57AF50A476C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14200" yWindow="3700" windowWidth="28040" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -114,6 +114,21 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>Initial Scraper</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Fox News</t>
+  </si>
+  <si>
+    <t>https://www.foxnews.com/</t>
+  </si>
+  <si>
+    <t>foxnews</t>
   </si>
 </sst>
 </file>
@@ -476,20 +491,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="5" max="6" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,10 +521,13 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -520,10 +538,13 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -534,7 +555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -545,7 +566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -556,7 +577,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -566,8 +587,11 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -578,7 +602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -587,6 +611,20 @@
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -598,6 +636,7 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{C414F531-D513-ED49-9CFF-2E2C5528886D}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{9806FFC2-1CAB-D547-8B1E-E6ACD6CD4EAA}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{45FB14FB-D5C1-BC4A-97DE-3E6FED8C6BD9}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{61E2FC5B-E46E-7447-8DD4-E1BAFBF30C2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F819AE5B-FDC8-3440-A5AF-C57AF50A476C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DEBD7B-4232-3E48-8887-6AEBF67F6FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="3700" windowWidth="28040" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
+    <workbookView xWindow="13340" yWindow="2540" windowWidth="28040" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -129,6 +129,27 @@
   </si>
   <si>
     <t>foxnews</t>
+  </si>
+  <si>
+    <t>http://abcnews.go.com</t>
+  </si>
+  <si>
+    <t>ABC News</t>
+  </si>
+  <si>
+    <t>abcnews</t>
+  </si>
+  <si>
+    <t>NameOK</t>
+  </si>
+  <si>
+    <t>Al Jazeera</t>
+  </si>
+  <si>
+    <t>https://www.aljazeera.com</t>
+  </si>
+  <si>
+    <t>aljazeera</t>
   </si>
 </sst>
 </file>
@@ -491,20 +512,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="6" width="17.1640625" customWidth="1"/>
+    <col min="5" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,10 +545,13 @@
         <v>27</v>
       </c>
       <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -540,11 +564,11 @@
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -555,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -566,7 +590,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -577,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -591,7 +615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -602,7 +626,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -616,7 +640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -625,6 +649,37 @@
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -637,6 +692,7 @@
     <hyperlink ref="B7" r:id="rId6" xr:uid="{9806FFC2-1CAB-D547-8B1E-E6ACD6CD4EAA}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{45FB14FB-D5C1-BC4A-97DE-3E6FED8C6BD9}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{61E2FC5B-E46E-7447-8DD4-E1BAFBF30C2A}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{00061D9A-3B38-B548-9A2A-DC4297639CE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DEBD7B-4232-3E48-8887-6AEBF67F6FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCA68DE-F629-E14F-81E3-E3AB421A2D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13340" yWindow="2540" windowWidth="28040" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
+    <workbookView xWindow="13920" yWindow="3940" windowWidth="27540" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>Name</t>
   </si>
@@ -150,6 +150,24 @@
   </si>
   <si>
     <t>aljazeera</t>
+  </si>
+  <si>
+    <t>Ars Technica</t>
+  </si>
+  <si>
+    <t>https://arstechnica.com</t>
+  </si>
+  <si>
+    <t>arstechnica</t>
+  </si>
+  <si>
+    <t>Axios</t>
+  </si>
+  <si>
+    <t>https://www.axios.com</t>
+  </si>
+  <si>
+    <t>axios</t>
   </si>
 </sst>
 </file>
@@ -512,14 +530,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="7" width="17.1640625" customWidth="1"/>
@@ -679,6 +698,34 @@
         <v>38</v>
       </c>
       <c r="F11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
         <v>28</v>
       </c>
     </row>
@@ -693,6 +740,7 @@
     <hyperlink ref="B8" r:id="rId7" xr:uid="{45FB14FB-D5C1-BC4A-97DE-3E6FED8C6BD9}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{61E2FC5B-E46E-7447-8DD4-E1BAFBF30C2A}"/>
     <hyperlink ref="B11" r:id="rId9" xr:uid="{00061D9A-3B38-B548-9A2A-DC4297639CE5}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{225B5E6F-B30B-4B49-9753-81B8E4720AA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCA68DE-F629-E14F-81E3-E3AB421A2D47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A09CBF-DAFC-C149-B7D9-2A7A895D451E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13920" yWindow="3940" windowWidth="27540" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Name</t>
   </si>
@@ -168,6 +168,24 @@
   </si>
   <si>
     <t>axios</t>
+  </si>
+  <si>
+    <t>BBC</t>
+  </si>
+  <si>
+    <t>Boston Globe</t>
+  </si>
+  <si>
+    <t>http://www.bbc.com/</t>
+  </si>
+  <si>
+    <t>https://www.bostonglobe.com/</t>
+  </si>
+  <si>
+    <t>bbc</t>
+  </si>
+  <si>
+    <t>bostonglobe</t>
   </si>
 </sst>
 </file>
@@ -530,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,6 +745,28 @@
       </c>
       <c r="F13" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A09CBF-DAFC-C149-B7D9-2A7A895D451E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5248254B-A4C9-ED4B-8A43-0DD75BAE43B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13920" yWindow="3940" windowWidth="27540" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -551,7 +551,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5248254B-A4C9-ED4B-8A43-0DD75BAE43B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FFE81D-3D3D-304A-A149-467DCC77883C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13920" yWindow="3940" windowWidth="27540" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -186,6 +186,39 @@
   </si>
   <si>
     <t>bostonglobe</t>
+  </si>
+  <si>
+    <t>Business Insider</t>
+  </si>
+  <si>
+    <t>http://www.businessinsider.com/</t>
+  </si>
+  <si>
+    <t>businessinsider</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Check buzzfeednews</t>
+  </si>
+  <si>
+    <t>Buzzfeed</t>
+  </si>
+  <si>
+    <t>https://www.buzzfeed.com/</t>
+  </si>
+  <si>
+    <t>buzzfeed</t>
+  </si>
+  <si>
+    <t>Chicago Tribune</t>
+  </si>
+  <si>
+    <t>http://www.chicagotribune.com</t>
+  </si>
+  <si>
+    <t>chicagotribune</t>
   </si>
 </sst>
 </file>
@@ -548,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -562,7 +595,7 @@
     <col min="5" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -587,8 +620,11 @@
       <c r="H1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -605,7 +641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -616,7 +652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -627,7 +663,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -638,7 +674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -652,7 +688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -663,7 +699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -677,7 +713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -691,7 +727,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -705,7 +741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -719,7 +755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -733,7 +769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -747,7 +783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -758,7 +794,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -767,6 +803,42 @@
       </c>
       <c r="C15" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -781,6 +853,7 @@
     <hyperlink ref="B9" r:id="rId8" xr:uid="{61E2FC5B-E46E-7447-8DD4-E1BAFBF30C2A}"/>
     <hyperlink ref="B11" r:id="rId9" xr:uid="{00061D9A-3B38-B548-9A2A-DC4297639CE5}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{225B5E6F-B30B-4B49-9753-81B8E4720AA8}"/>
+    <hyperlink ref="B17" r:id="rId11" xr:uid="{CC42F22C-0342-A745-898B-C8F45637BBD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FFE81D-3D3D-304A-A149-467DCC77883C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D3748-6523-8C4B-B872-F3C3E7832965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13920" yWindow="3940" windowWidth="27540" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -219,6 +219,42 @@
   </si>
   <si>
     <t>chicagotribune</t>
+  </si>
+  <si>
+    <t>CNBC</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>Daily Beast</t>
+  </si>
+  <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>cnbc.com</t>
+  </si>
+  <si>
+    <t>cnn.com</t>
+  </si>
+  <si>
+    <t>dailybeast.com</t>
+  </si>
+  <si>
+    <t>forbes.com</t>
+  </si>
+  <si>
+    <t>cnbc</t>
+  </si>
+  <si>
+    <t>cnn</t>
+  </si>
+  <si>
+    <t>dailybeast</t>
+  </si>
+  <si>
+    <t>forbes</t>
   </si>
 </sst>
 </file>
@@ -581,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,6 +875,50 @@
       </c>
       <c r="C18" s="1" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564D3748-6523-8C4B-B872-F3C3E7832965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B09CBDD-F8A2-994E-89C7-0D7A6DCBCC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="3940" windowWidth="27540" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
+    <workbookView xWindow="10220" yWindow="5620" windowWidth="27540" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>Name</t>
   </si>
@@ -255,6 +255,36 @@
   </si>
   <si>
     <t>forbes</t>
+  </si>
+  <si>
+    <t>Live Science</t>
+  </si>
+  <si>
+    <t>National Review</t>
+  </si>
+  <si>
+    <t>NBC News</t>
+  </si>
+  <si>
+    <t>livescience</t>
+  </si>
+  <si>
+    <t>nationalreview</t>
+  </si>
+  <si>
+    <t>nbcnews</t>
+  </si>
+  <si>
+    <t>livescience.com</t>
+  </si>
+  <si>
+    <t>nationalreview.com</t>
+  </si>
+  <si>
+    <t>nbcnews.com</t>
+  </si>
+  <si>
+    <t>NEED FIX</t>
   </si>
 </sst>
 </file>
@@ -617,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,6 +928,9 @@
       <c r="C20" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -909,6 +942,9 @@
       <c r="C21" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -919,6 +955,51 @@
       </c>
       <c r="C22" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="F22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B09CBDD-F8A2-994E-89C7-0D7A6DCBCC08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4BF71C-EA1C-7F48-AA2C-8DDC1B362F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10220" yWindow="5620" windowWidth="27540" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t>NEED FIX</t>
+  </si>
+  <si>
+    <t>Fortune</t>
+  </si>
+  <si>
+    <t>fortune.com</t>
+  </si>
+  <si>
+    <t>fortune</t>
   </si>
 </sst>
 </file>
@@ -647,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1000,6 +1009,17 @@
       </c>
       <c r="F25" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4BF71C-EA1C-7F48-AA2C-8DDC1B362F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB543F3-7817-B643-8447-32E7432E2FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10220" yWindow="5620" windowWidth="27540" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -294,6 +294,15 @@
   </si>
   <si>
     <t>fortune</t>
+  </si>
+  <si>
+    <t>National Public Radio</t>
+  </si>
+  <si>
+    <t>npr.org</t>
+  </si>
+  <si>
+    <t>npr</t>
   </si>
 </sst>
 </file>
@@ -656,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1020,6 +1029,17 @@
       </c>
       <c r="C26" s="1" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB543F3-7817-B643-8447-32E7432E2FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9FF200-930F-6540-9A72-CC6B1880A870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10220" yWindow="5620" windowWidth="27540" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
   <si>
     <t>Name</t>
   </si>
@@ -303,6 +303,24 @@
   </si>
   <si>
     <t>npr</t>
+  </si>
+  <si>
+    <t>New York Daily News</t>
+  </si>
+  <si>
+    <t>nydailynews.copm</t>
+  </si>
+  <si>
+    <t>nydailynews</t>
+  </si>
+  <si>
+    <t>New Yorker</t>
+  </si>
+  <si>
+    <t>newyorker.com</t>
+  </si>
+  <si>
+    <t>newyorker</t>
   </si>
 </sst>
 </file>
@@ -665,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1040,6 +1058,31 @@
       </c>
       <c r="C27" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9FF200-930F-6540-9A72-CC6B1880A870}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6359F3-14DB-A842-A0AC-C16ABC54F046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10220" yWindow="5620" windowWidth="27540" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -321,6 +321,24 @@
   </si>
   <si>
     <t>newyorker</t>
+  </si>
+  <si>
+    <t>New York Post</t>
+  </si>
+  <si>
+    <t>nypost.com</t>
+  </si>
+  <si>
+    <t>Politico</t>
+  </si>
+  <si>
+    <t>politico.com</t>
+  </si>
+  <si>
+    <t>nypost</t>
+  </si>
+  <si>
+    <t>politico</t>
   </si>
 </sst>
 </file>
@@ -683,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,6 +1101,28 @@
       </c>
       <c r="C29" s="1" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6359F3-14DB-A842-A0AC-C16ABC54F046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D67D34-B58A-EC46-84CC-635DC83DDBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10220" yWindow="5620" windowWidth="27540" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
+    <workbookView xWindow="17580" yWindow="3240" windowWidth="20180" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
   <si>
     <t>Name</t>
   </si>
@@ -339,6 +339,15 @@
   </si>
   <si>
     <t>politico</t>
+  </si>
+  <si>
+    <t>Reuters</t>
+  </si>
+  <si>
+    <t>reuters.com</t>
+  </si>
+  <si>
+    <t>reuters</t>
   </si>
 </sst>
 </file>
@@ -701,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,6 +1132,17 @@
       </c>
       <c r="C31" s="1" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D67D34-B58A-EC46-84CC-635DC83DDBCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E578F16-4DEE-E64C-A687-D92C3F65FE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17580" yWindow="3240" windowWidth="20180" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
   <si>
     <t>Name</t>
   </si>
@@ -348,6 +348,15 @@
   </si>
   <si>
     <t>reuters</t>
+  </si>
+  <si>
+    <t>Russia Today</t>
+  </si>
+  <si>
+    <t>rt.com</t>
+  </si>
+  <si>
+    <t>rt</t>
   </si>
 </sst>
 </file>
@@ -710,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1143,6 +1152,17 @@
       </c>
       <c r="C32" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E578F16-4DEE-E64C-A687-D92C3F65FE42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECFBD31-A5DA-9943-A3AE-9A40E11C1729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17580" yWindow="3240" windowWidth="20180" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
   <si>
     <t>Name</t>
   </si>
@@ -357,6 +357,24 @@
   </si>
   <si>
     <t>rt</t>
+  </si>
+  <si>
+    <t>San Fransisco Chronicle</t>
+  </si>
+  <si>
+    <t>https://www.sfchronicle.com</t>
+  </si>
+  <si>
+    <t>sanfransiscochronicle</t>
+  </si>
+  <si>
+    <t>Slate</t>
+  </si>
+  <si>
+    <t>slate.com</t>
+  </si>
+  <si>
+    <t>slate</t>
   </si>
 </sst>
 </file>
@@ -719,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1163,6 +1181,28 @@
       </c>
       <c r="C33" s="1" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECFBD31-A5DA-9943-A3AE-9A40E11C1729}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F2044-2F78-0F4A-80CF-4655D0B4F98A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17580" yWindow="3240" windowWidth="20180" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -375,6 +375,15 @@
   </si>
   <si>
     <t>slate</t>
+  </si>
+  <si>
+    <t>Yahoo News</t>
+  </si>
+  <si>
+    <t>news.yahoo.com</t>
+  </si>
+  <si>
+    <t>yahoonews</t>
   </si>
 </sst>
 </file>
@@ -737,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1203,6 +1212,17 @@
       </c>
       <c r="C35" s="1" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F2044-2F78-0F4A-80CF-4655D0B4F98A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9B77EB-879B-384B-B592-4016C05A3625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17580" yWindow="3240" windowWidth="20180" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -384,6 +384,15 @@
   </si>
   <si>
     <t>yahoonews</t>
+  </si>
+  <si>
+    <t>Sputnik News</t>
+  </si>
+  <si>
+    <t>https://sputniknews.com/</t>
+  </si>
+  <si>
+    <t>sputnik</t>
   </si>
 </sst>
 </file>
@@ -746,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1225,6 +1234,17 @@
         <v>116</v>
       </c>
     </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{5D619745-A190-1A47-85C9-096FBE68D498}"/>
@@ -1238,6 +1258,7 @@
     <hyperlink ref="B11" r:id="rId9" xr:uid="{00061D9A-3B38-B548-9A2A-DC4297639CE5}"/>
     <hyperlink ref="B12" r:id="rId10" xr:uid="{225B5E6F-B30B-4B49-9753-81B8E4720AA8}"/>
     <hyperlink ref="B17" r:id="rId11" xr:uid="{CC42F22C-0342-A745-898B-C8F45637BBD6}"/>
+    <hyperlink ref="B37" r:id="rId12" xr:uid="{A4E958FB-5873-BD4E-9891-6C8EF21AD11A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9B77EB-879B-384B-B592-4016C05A3625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEA66CE-EA1A-1A4E-A9F2-1A8A40F31B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17580" yWindow="3240" windowWidth="20180" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>sputnik</t>
+  </si>
+  <si>
+    <t>TechCrunch</t>
+  </si>
+  <si>
+    <t>techcrunch.com</t>
+  </si>
+  <si>
+    <t>techcrunch</t>
   </si>
 </sst>
 </file>
@@ -755,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1243,6 +1252,17 @@
       </c>
       <c r="C37" s="1" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEA66CE-EA1A-1A4E-A9F2-1A8A40F31B30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2833FF0-D0CC-F348-BDA7-CD3DCEDCD01C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17580" yWindow="3240" windowWidth="20180" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2833FF0-D0CC-F348-BDA7-CD3DCEDCD01C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D74C04-B3A5-D140-B701-07A8540BB75F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17580" yWindow="3240" windowWidth="20180" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
+    <workbookView xWindow="14160" yWindow="1880" windowWidth="20180" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
   <si>
     <t>Name</t>
   </si>
@@ -402,6 +402,15 @@
   </si>
   <si>
     <t>techcrunch</t>
+  </si>
+  <si>
+    <t>The Atlantic</t>
+  </si>
+  <si>
+    <t>theatlantic.com</t>
+  </si>
+  <si>
+    <t>theatlantic</t>
   </si>
 </sst>
 </file>
@@ -764,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,6 +1272,17 @@
       </c>
       <c r="C38" s="1" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D74C04-B3A5-D140-B701-07A8540BB75F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64089D71-A0AC-F343-A781-9B44E853AFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14160" yWindow="1880" windowWidth="20180" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="127">
   <si>
     <t>Name</t>
   </si>
@@ -411,6 +411,9 @@
   </si>
   <si>
     <t>theatlantic</t>
+  </si>
+  <si>
+    <t>dailycaller.com</t>
   </si>
 </sst>
 </file>
@@ -773,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1283,6 +1286,17 @@
       </c>
       <c r="C39" s="1" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64089D71-A0AC-F343-A781-9B44E853AFD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE8DEC2-134B-D643-B312-71E60DE3BEAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="1880" windowWidth="20180" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
+    <workbookView xWindow="7020" yWindow="3400" windowWidth="20180" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="154">
   <si>
     <t>Name</t>
   </si>
@@ -89,6 +89,9 @@
     <t>https://www.nytimes.com/</t>
   </si>
   <si>
+    <t>nytimes</t>
+  </si>
+  <si>
     <t>newyorktimes</t>
   </si>
   <si>
@@ -414,13 +417,91 @@
   </si>
   <si>
     <t>dailycaller.com</t>
+  </si>
+  <si>
+    <t>TwitterAccount</t>
+  </si>
+  <si>
+    <t>TwitterID</t>
+  </si>
+  <si>
+    <t>BreitbartNews</t>
+  </si>
+  <si>
+    <t>DailySignal</t>
+  </si>
+  <si>
+    <t>DailyCaller</t>
+  </si>
+  <si>
+    <t>WSJ</t>
+  </si>
+  <si>
+    <t>FoxNews</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>AJEnglish</t>
+  </si>
+  <si>
+    <t>BBCWorld</t>
+  </si>
+  <si>
+    <t>BostonGlobe</t>
+  </si>
+  <si>
+    <t>BuzzFeed</t>
+  </si>
+  <si>
+    <t>thedailybeast</t>
+  </si>
+  <si>
+    <t>LiveScience</t>
+  </si>
+  <si>
+    <t>NRO</t>
+  </si>
+  <si>
+    <t>NBCNews</t>
+  </si>
+  <si>
+    <t>FortuneMagazine</t>
+  </si>
+  <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>NYDailyNews</t>
+  </si>
+  <si>
+    <t>NewYorker</t>
+  </si>
+  <si>
+    <t>RT_com</t>
+  </si>
+  <si>
+    <t>sfchronicle</t>
+  </si>
+  <si>
+    <t>YahooNews</t>
+  </si>
+  <si>
+    <t>SputnikInt</t>
+  </si>
+  <si>
+    <t>TheAtlantic</t>
+  </si>
+  <si>
+    <t>800707492346925056</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,6 +516,37 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D5156"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -458,9 +570,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -776,527 +894,768 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="7" width="17.1640625" customWidth="1"/>
+    <col min="2" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="9" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="2">
+        <v>457984599</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2361224263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="2">
+        <v>39308549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>34927577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>807095</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3108351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2467791</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1367531</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="D10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="2">
+        <v>28785486</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4970411</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2">
+        <v>717313</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="2">
+        <v>742143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="2">
+        <v>95431448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20562637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5695632</v>
+      </c>
+      <c r="K17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="2">
+        <v>7313362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20402945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>759251</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="2">
+        <v>16012783</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="2">
+        <v>91478624</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="2">
+        <v>15428397</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="2">
+        <v>19417492</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="2">
+        <v>14173315</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="2">
+        <v>25053299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="2">
+        <v>5392522</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E28" s="2">
+        <v>9763482</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E29" s="2">
+        <v>14677919</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="2">
+        <v>17469289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="2">
+        <v>9300262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1652541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" s="2">
+        <v>64643056</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="2">
+        <v>121597316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="2">
+        <v>15164565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="2">
+        <v>7309052</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="2">
+        <v>34262462</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="2">
+        <v>816653</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="2">
+        <v>35773039</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B40" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>15</v>
+      <c r="D40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="2">
+        <v>39308549</v>
       </c>
     </row>
   </sheetData>

--- a/NewsSites.xlsx
+++ b/NewsSites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattbrockman/Documents/summer_2020_projects/CoverageTrends/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE8DEC2-134B-D643-B312-71E60DE3BEAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7030852-BDF3-F64D-840E-05B28485837A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7020" yWindow="3400" windowWidth="20180" windowHeight="17440" xr2:uid="{B255A80A-19D3-D644-8E16-C1158F5F040F}"/>
   </bookViews>
@@ -501,7 +501,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -548,6 +548,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF657786"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -570,7 +576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -579,6 +585,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -894,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5291C7-8967-304A-A643-1581167FA0DB}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E41" sqref="A41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1657,6 +1664,12 @@
       <c r="E40" s="2">
         <v>39308549</v>
       </c>
+    </row>
+    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
